--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A1C2FE-8E04-4FD6-B302-AEFE4BCE86A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01793DF-21F2-47AA-8AB1-8F63BADCCD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학과 공지 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="학교 공지 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="학교 공지 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="학교 공지 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="학교 공지 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="학과 공지 상세 조회" sheetId="2" r:id="rId2"/>
+    <sheet name="학과 공지 작성" sheetId="3" r:id="rId3"/>
+    <sheet name="학과 공지 수정" sheetId="4" r:id="rId4"/>
+    <sheet name="학과 공지 삭제" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1535,17 +1535,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,20 +1561,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1600,6 +1600,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1608,15 +1623,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1634,12 +1640,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1973,95 +1973,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2110,64 +2110,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2502,28 +2502,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="343" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -3098,6 +3098,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3106,12 +3112,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3142,29 +3142,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -3184,53 +3184,53 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3289,64 +3289,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3681,28 +3681,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="255.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -4277,6 +4277,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4285,12 +4291,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4321,29 +4321,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -4363,53 +4363,53 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4748,28 +4748,28 @@
       <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -5118,28 +5118,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="257" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5464,12 +5464,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5477,6 +5471,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5507,29 +5507,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -5549,53 +5549,53 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5934,42 +5934,42 @@
       <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6048,11 +6048,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6309,28 +6309,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
     </row>
     <row r="47" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6656,11 +6656,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A46:H46"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6668,6 +6663,11 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
@@ -6686,7 +6686,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6701,29 +6701,29 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -6743,53 +6743,53 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6862,40 +6862,40 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -6978,28 +6978,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7122,24 +7122,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7743,13 +7743,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7759,6 +7752,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01793DF-21F2-47AA-8AB1-8F63BADCCD74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A5529-6367-4C7E-A926-9313B9935DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학과 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="96">
   <si>
     <t>Title</t>
   </si>
@@ -598,112 +598,6 @@
   </si>
   <si>
     <t>http://localhost:8080/notice/department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "notice_id" : 1
-   },
-   "pagination" : {
-      "total_pages" : 10,
-      "total_elements" : 100,
-      "current_page" : 3,
-      "current_elements" : 10
-   }
-}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1235,6 +1129,141 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 리스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : [{
+      "id" : 1,
+      "title" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+      "content" : "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "notice_id" : 1
+   }],
+   "pagination" : {
+      "total_pages" : 10,
+      "total_elements" : 100,
+      "current_page" : 3,
+      "current_elements" : 10
+   }
+}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1470,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,12 +1565,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1559,18 +1603,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1957,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1973,7 +2005,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="29" t="s">
         <v>80</v>
       </c>
       <c r="C1" s="28"/>
@@ -1987,7 +2019,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -2001,7 +2033,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="29" t="s">
         <v>81</v>
       </c>
       <c r="C3" s="28"/>
@@ -2015,7 +2047,7 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="28"/>
@@ -2029,7 +2061,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2038,7 +2070,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -2053,7 +2085,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -2110,7 +2142,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="28"/>
@@ -2122,7 +2154,7 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="28"/>
@@ -2134,7 +2166,7 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -2144,7 +2176,7 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="28"/>
@@ -2159,7 +2191,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28"/>
@@ -2248,26 +2280,26 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="4" t="s">
+      <c r="A20" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -2502,28 +2534,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="343" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -3098,12 +3130,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3112,6 +3138,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3142,8 +3174,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>84</v>
+      <c r="B1" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -3156,7 +3188,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -3170,21 +3202,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="28"/>
@@ -3198,7 +3230,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -3207,7 +3239,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -3222,7 +3254,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -3289,7 +3321,7 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="34" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="28"/>
@@ -3301,8 +3333,8 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="30" t="s">
-        <v>86</v>
+      <c r="A12" s="35" t="s">
+        <v>85</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3313,7 +3345,7 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -3323,7 +3355,7 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="28"/>
@@ -3338,7 +3370,7 @@
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="33" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="28"/>
@@ -3446,7 +3478,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -3681,28 +3713,28 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="35"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" ht="255.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
+      <c r="A34" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -4277,12 +4309,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4291,6 +4317,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4321,8 +4353,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>88</v>
+      <c r="B1" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -4335,7 +4367,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -4349,21 +4381,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="28"/>
@@ -4377,7 +4409,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -4386,7 +4418,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -4401,7 +4433,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -4724,52 +4756,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -4883,7 +4915,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -5118,28 +5150,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="257" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5464,6 +5496,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5471,12 +5509,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5507,8 +5539,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>90</v>
+      <c r="B1" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -5521,7 +5553,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -5535,21 +5567,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="28"/>
@@ -5563,7 +5595,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -5572,7 +5604,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -5587,7 +5619,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -5695,7 +5727,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -5910,66 +5942,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="49" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
+      <c r="A26" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="52"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6048,11 +6080,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6074,7 +6106,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -6309,28 +6341,28 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="35"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
+      <c r="A47" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6656,13 +6688,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A47:H47"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -6671,6 +6696,13 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6685,7 +6717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6701,8 +6733,8 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>93</v>
+      <c r="B1" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -6715,7 +6747,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="28"/>
@@ -6729,21 +6761,21 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="29" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="28"/>
@@ -6757,7 +6789,7 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -6766,7 +6798,7 @@
       <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -6781,7 +6813,7 @@
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="33" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="28"/>
@@ -6838,64 +6870,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="A11" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -6978,28 +7010,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7122,24 +7154,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7743,6 +7775,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7752,13 +7791,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515A5529-6367-4C7E-A926-9313B9935DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304749A-6C44-45CF-B39E-78317C4D8C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="96">
   <si>
     <t>Title</t>
   </si>
@@ -1499,7 +1499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,16 +1567,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1586,6 +1576,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1603,6 +1594,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1989,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:H34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2005,95 +2008,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2142,64 +2145,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2514,69 +2517,68 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="343" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -3130,20 +3132,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3158,8 +3160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3174,95 +3176,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3321,64 +3323,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3693,69 +3695,68 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="22" t="s">
+      <c r="H33" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="38" t="s">
+    <row r="34" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" ht="255.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="32" t="s">
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -4309,20 +4310,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4337,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4353,95 +4354,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4756,52 +4757,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -5130,48 +5131,68 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H46" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
+    <row r="47" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="257" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="32" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="309" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5496,12 +5517,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5509,6 +5524,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5523,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5539,95 +5560,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5942,66 +5963,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="40"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6080,11 +6101,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6321,48 +6342,68 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H46" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="38" t="s">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="267.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="32" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+    </row>
+    <row r="48" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6688,14 +6729,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -6703,6 +6736,14 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6733,95 +6774,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6870,64 +6911,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7010,28 +7051,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7154,24 +7195,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7775,13 +7816,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7791,6 +7825,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7304749A-6C44-45CF-B39E-78317C4D8C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501367A-BB37-4B5C-BBAD-7567E1EC45EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="106">
   <si>
     <t>Title</t>
   </si>
@@ -1267,12 +1267,248 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,6 +1611,22 @@
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1499,7 +1751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,13 +1822,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1594,18 +1862,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1675,6 +1931,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1992,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2008,95 +2270,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -2145,64 +2407,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -2556,79 +2818,115 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="1:8" ht="349.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
-        <v>95</v>
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="67" t="s">
+        <v>98</v>
+      </c>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="F35" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="67"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="67"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
+      <c r="A38" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="67" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A39" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:8" ht="332" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="11"/>
@@ -3132,20 +3430,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="A39:H39"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3176,95 +3474,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -3323,64 +3621,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="33"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
@@ -3735,28 +4033,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="13"/>
@@ -4310,12 +4608,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4324,6 +4616,12 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4354,95 +4652,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -4757,52 +5055,52 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
@@ -5171,28 +5469,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:8" ht="309" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -5517,6 +5815,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5524,12 +5828,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5560,95 +5858,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -5963,66 +6261,66 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
@@ -6101,11 +6399,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="22" t="s">
@@ -6382,28 +6680,28 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
     </row>
     <row r="48" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
     </row>
     <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6729,13 +7027,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -6744,6 +7035,13 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6774,95 +7072,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
@@ -6911,64 +7209,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="61"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="37"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
@@ -7051,28 +7349,28 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="55"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
@@ -7195,24 +7493,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
@@ -7816,6 +8114,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -7825,13 +8130,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0501367A-BB37-4B5C-BBAD-7567E1EC45EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA679A6-800C-4BBF-9555-8F45CD8F2617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학과 공지 전체 조회" sheetId="1" r:id="rId1"/>
-    <sheet name="학과 공지 상세 조회" sheetId="2" r:id="rId2"/>
-    <sheet name="학과 공지 작성" sheetId="3" r:id="rId3"/>
-    <sheet name="학과 공지 수정" sheetId="4" r:id="rId4"/>
-    <sheet name="학과 공지 삭제" sheetId="5" r:id="rId5"/>
+    <sheet name="학과 공지 검색(제목)" sheetId="6" r:id="rId2"/>
+    <sheet name="학과 공지 검색(제목+내용)" sheetId="7" r:id="rId3"/>
+    <sheet name="학과 공지 검색(작성자)" sheetId="8" r:id="rId4"/>
+    <sheet name="학과 공지 상세 조회" sheetId="2" r:id="rId5"/>
+    <sheet name="학과 공지 작성" sheetId="3" r:id="rId6"/>
+    <sheet name="학과 공지 수정" sheetId="4" r:id="rId7"/>
+    <sheet name="학과 공지 삭제" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="115">
   <si>
     <t>Title</t>
   </si>
@@ -1503,12 +1506,328 @@
     <t>default 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1627,6 +1946,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1751,7 +2083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1826,17 +2158,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,6 +2180,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1862,6 +2198,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,12 +2279,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2254,11 +2596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -2266,101 +2608,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2386,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2396,7 +2738,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2406,67 +2748,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -2492,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -2510,7 +2852,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2528,7 +2870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -2544,7 +2886,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="26" t="s">
         <v>93</v>
       </c>
@@ -2562,7 +2904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -2582,7 +2924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -2602,7 +2944,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -2622,7 +2964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -2642,7 +2984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +3004,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
@@ -2682,7 +3024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -2702,7 +3044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -2722,7 +3064,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -2740,7 +3082,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
@@ -2758,7 +3100,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -2778,7 +3120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
@@ -2798,7 +3140,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
@@ -2818,7 +3160,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>96</v>
       </c>
@@ -2830,12 +3172,12 @@
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B35" s="28"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="34" t="s">
         <v>98</v>
       </c>
       <c r="D35" s="28"/>
@@ -2846,14 +3188,14 @@
       <c r="G35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="67"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B36" s="28"/>
-      <c r="C36" s="68" t="s">
+      <c r="C36" s="35" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="28"/>
@@ -2864,14 +3206,14 @@
       <c r="G36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B37" s="28"/>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="35" t="s">
         <v>102</v>
       </c>
       <c r="D37" s="28"/>
@@ -2882,14 +3224,14 @@
       <c r="G37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B38" s="28"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="35" t="s">
         <v>104</v>
       </c>
       <c r="D38" s="28"/>
@@ -2900,35 +3242,35 @@
       <c r="G38" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="H38" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" ht="332" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="35" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="332" customHeight="1">
+      <c r="A40" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -2938,7 +3280,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2948,7 +3290,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2958,7 +3300,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2968,7 +3310,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -2978,7 +3320,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2988,7 +3330,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2998,7 +3340,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -3008,7 +3350,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -3018,7 +3360,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -3028,7 +3370,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -3038,7 +3380,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -3048,7 +3390,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3058,7 +3400,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -3068,7 +3410,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -3078,7 +3420,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -3088,7 +3430,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -3098,7 +3440,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -3108,7 +3450,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -3118,7 +3460,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -3128,7 +3470,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -3138,7 +3480,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -3148,7 +3490,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3158,7 +3500,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3168,7 +3510,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3178,7 +3520,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3188,7 +3530,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3198,7 +3540,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3208,7 +3550,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3218,7 +3560,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3228,7 +3570,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3238,7 +3580,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3248,7 +3590,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3258,7 +3600,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3268,7 +3610,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3278,7 +3620,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3288,7 +3630,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3298,7 +3640,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3308,7 +3650,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3318,7 +3660,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3328,7 +3670,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3338,7 +3680,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3348,7 +3690,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3358,7 +3700,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3368,7 +3710,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3378,7 +3720,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3388,7 +3730,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3398,7 +3740,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3408,7 +3750,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3418,7 +3760,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3430,6 +3772,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3438,12 +3786,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3455,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A124F7A-DA1E-44F6-A044-FD6B9B9E3A46}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -3470,101 +3812,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B1" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B3" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3932,3619 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="332" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3C28DB4F-1EEA-4AB1-BF81-F9E24433FDA1}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{C5D15B29-AA3F-4CA3-B570-C9060ED99CE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384BA4C8-7AC5-4D47-81F5-6C8266FCDC15}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="332" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3E717F00-852B-4D8A-89D5-0402CB8F8916}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{D895C5B2-11A4-4114-8423-1F149D67557A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637FBEDF-8B61-4084-8AF7-D9562F0E774A}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="34"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:8" ht="332" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{843F6D2B-2408-447C-A206-D4E98BBD5458}"/>
+    <hyperlink ref="A12" r:id="rId2" xr:uid="{A8831655-3EBF-427E-8CDC-839F8A5F16C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="13.25" style="1"/>
+    <col min="8" max="8" width="54.08203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3610,7 +7564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3620,67 +7574,67 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="41"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
@@ -3706,7 +7660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3724,7 +7678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -3742,7 +7696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -3758,7 +7712,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -3776,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>91</v>
       </c>
@@ -3796,7 +7750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
@@ -3816,7 +7770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
@@ -3836,7 +7790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
@@ -3856,7 +7810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="8" t="s">
         <v>49</v>
       </c>
@@ -3876,7 +7830,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="9" t="s">
         <v>51</v>
       </c>
@@ -3896,7 +7850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -3916,7 +7870,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
         <v>57</v>
       </c>
@@ -3936,7 +7890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -3954,7 +7908,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
@@ -3972,7 +7926,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -3992,7 +7946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="27" t="s">
         <v>76</v>
       </c>
@@ -4012,7 +7966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
@@ -4032,31 +7986,31 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A34" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="43"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="1:8" ht="269.5" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -4066,7 +8020,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4076,7 +8030,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4086,7 +8040,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -4096,7 +8050,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4106,7 +8060,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -4116,7 +8070,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -4126,7 +8080,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -4136,7 +8090,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -4146,7 +8100,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4156,7 +8110,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -4166,7 +8120,7 @@
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -4176,7 +8130,7 @@
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4186,7 +8140,7 @@
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4196,7 +8150,7 @@
       <c r="G51" s="13"/>
       <c r="H51" s="13"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4206,7 +8160,7 @@
       <c r="G52" s="13"/>
       <c r="H52" s="13"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4216,7 +8170,7 @@
       <c r="G53" s="13"/>
       <c r="H53" s="13"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4226,7 +8180,7 @@
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4236,7 +8190,7 @@
       <c r="G55" s="13"/>
       <c r="H55" s="13"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4246,7 +8200,7 @@
       <c r="G56" s="13"/>
       <c r="H56" s="13"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="16"/>
@@ -4256,7 +8210,7 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="16"/>
@@ -4266,7 +8220,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="16"/>
@@ -4276,7 +8230,7 @@
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
@@ -4286,7 +8240,7 @@
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -4296,7 +8250,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -4306,7 +8260,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4316,7 +8270,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -4326,7 +8280,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -4336,7 +8290,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -4346,7 +8300,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -4356,7 +8310,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -4366,7 +8320,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -4376,7 +8330,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -4386,7 +8340,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -4396,7 +8350,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -4406,7 +8360,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -4416,7 +8370,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -4426,7 +8380,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -4436,7 +8390,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -4446,7 +8400,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -4456,7 +8410,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -4466,7 +8420,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -4476,7 +8430,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -4486,7 +8440,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -4496,7 +8450,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4506,7 +8460,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4516,7 +8470,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4526,7 +8480,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4536,7 +8490,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4546,7 +8500,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4556,7 +8510,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4566,7 +8520,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4576,7 +8530,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4586,7 +8540,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4596,7 +8550,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4608,6 +8562,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4616,12 +8576,6 @@
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4632,7 +8586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -4640,7 +8594,7 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -4648,101 +8602,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -4768,7 +8722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4786,7 +8740,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -4804,7 +8758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -4820,7 +8774,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -4838,7 +8792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="8" t="s">
         <v>42</v>
       </c>
@@ -4858,7 +8812,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>44</v>
       </c>
@@ -4878,7 +8832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
@@ -4898,7 +8852,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
@@ -4918,7 +8872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="9" t="s">
         <v>51</v>
       </c>
@@ -4938,7 +8892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -4958,7 +8912,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
         <v>57</v>
       </c>
@@ -4978,7 +8932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -4996,7 +8950,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
@@ -5014,7 +8968,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>38</v>
       </c>
@@ -5034,7 +8988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="22" t="s">
         <v>76</v>
       </c>
@@ -5054,55 +9008,55 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:8" ht="198.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:8" ht="198.5" customHeight="1">
+      <c r="A26" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
@@ -5116,7 +9070,7 @@
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
@@ -5142,7 +9096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -5160,7 +9114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -5178,7 +9132,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="22" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +9148,7 @@
       </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
@@ -5212,7 +9166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
         <v>91</v>
       </c>
@@ -5232,7 +9186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
@@ -5252,7 +9206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -5272,7 +9226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -5292,7 +9246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -5312,7 +9266,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>51</v>
       </c>
@@ -5332,7 +9286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -5352,7 +9306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -5372,7 +9326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -5390,7 +9344,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -5408,7 +9362,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
         <v>38</v>
       </c>
@@ -5428,7 +9382,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="27" t="s">
         <v>76</v>
       </c>
@@ -5448,7 +9402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
@@ -5468,32 +9422,32 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="309" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="35" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="309" customHeight="1">
+      <c r="A48" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="271" customHeight="1"/>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -5503,7 +9457,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -5513,7 +9467,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -5523,7 +9477,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -5533,7 +9487,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -5543,7 +9497,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -5553,7 +9507,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -5563,7 +9517,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -5573,7 +9527,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -5583,7 +9537,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -5593,7 +9547,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -5603,7 +9557,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -5613,7 +9567,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -5623,7 +9577,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -5633,7 +9587,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -5643,7 +9597,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -5653,7 +9607,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -5663,7 +9617,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -5673,7 +9627,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -5683,7 +9637,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -5693,7 +9647,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -5703,7 +9657,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -5713,7 +9667,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -5723,7 +9677,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -5733,7 +9687,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -5743,7 +9697,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -5753,7 +9707,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -5763,7 +9717,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -5773,7 +9727,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -5783,7 +9737,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -5793,7 +9747,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -5803,7 +9757,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -5815,12 +9769,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -5828,6 +9776,12 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5838,7 +9792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
@@ -5846,7 +9800,7 @@
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -5854,101 +9808,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -5974,7 +9928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -5992,7 +9946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -6010,7 +9964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -6026,7 +9980,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -6044,7 +9998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>91</v>
       </c>
@@ -6064,7 +10018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="A14" s="8" t="s">
         <v>42</v>
       </c>
@@ -6084,7 +10038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="A15" s="8" t="s">
         <v>44</v>
       </c>
@@ -6104,7 +10058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -6124,7 +10078,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
@@ -6144,7 +10098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13">
       <c r="A18" s="9" t="s">
         <v>51</v>
       </c>
@@ -6164,7 +10118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -6184,7 +10138,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>57</v>
       </c>
@@ -6204,7 +10158,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -6222,7 +10176,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>61</v>
       </c>
@@ -6240,7 +10194,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
@@ -6260,69 +10214,69 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="47" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="50" t="s">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="55"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" ht="260" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="53" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
+    </row>
+    <row r="26" spans="1:13" ht="260" customHeight="1">
+      <c r="A26" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-    </row>
-    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.5" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="21" t="s">
         <v>10</v>
       </c>
@@ -6348,7 +10302,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13">
       <c r="A30" s="22" t="s">
         <v>26</v>
       </c>
@@ -6366,7 +10320,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -6384,7 +10338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" ht="15.5" customHeight="1">
       <c r="A32" s="22" t="s">
         <v>31</v>
       </c>
@@ -6399,13 +10353,13 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
         <v>33</v>
       </c>
@@ -6423,7 +10377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
         <v>91</v>
       </c>
@@ -6443,7 +10397,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="8" t="s">
         <v>42</v>
       </c>
@@ -6463,7 +10417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="8" t="s">
         <v>44</v>
       </c>
@@ -6483,7 +10437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -6503,7 +10457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
@@ -6523,7 +10477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="9" t="s">
         <v>51</v>
       </c>
@@ -6543,7 +10497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
@@ -6563,7 +10517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="8" t="s">
         <v>57</v>
       </c>
@@ -6583,7 +10537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -6601,7 +10555,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
@@ -6619,7 +10573,7 @@
       </c>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="22" t="s">
         <v>38</v>
       </c>
@@ -6639,7 +10593,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="27" t="s">
         <v>76</v>
       </c>
@@ -6659,7 +10613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="22" t="s">
         <v>73</v>
       </c>
@@ -6679,33 +10633,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
+      <c r="A47" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-    </row>
-    <row r="48" spans="1:8" ht="354.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="35" t="s">
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="45"/>
+    </row>
+    <row r="48" spans="1:8" ht="354.5" customHeight="1">
+      <c r="A48" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" ht="277" customHeight="1"/>
+    <row r="50" spans="1:8" ht="271" customHeight="1"/>
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -6715,7 +10669,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -6725,7 +10679,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -6735,7 +10689,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -6745,7 +10699,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -6755,7 +10709,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -6765,7 +10719,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -6775,7 +10729,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -6785,7 +10739,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -6795,7 +10749,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -6805,7 +10759,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -6815,7 +10769,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -6825,7 +10779,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -6835,7 +10789,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -6845,7 +10799,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -6855,7 +10809,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -6865,7 +10819,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -6875,7 +10829,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6885,7 +10839,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -6895,7 +10849,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -6905,7 +10859,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -6915,7 +10869,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -6925,7 +10879,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -6935,7 +10889,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -6945,7 +10899,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -6955,7 +10909,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -6965,7 +10919,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -6975,7 +10929,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -6985,7 +10939,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -6995,7 +10949,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -7005,7 +10959,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -7015,7 +10969,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -7027,6 +10981,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A48:H48"/>
     <mergeCell ref="I32:M32"/>
     <mergeCell ref="A24:H24"/>
@@ -7035,13 +10996,6 @@
     <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7052,7 +11006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -7060,7 +11014,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="13.25" style="1"/>
@@ -7068,101 +11022,101 @@
     <col min="9" max="16384" width="13.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="30" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -7188,7 +11142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -7208,67 +11162,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="50" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="41" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
@@ -7294,7 +11248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -7312,7 +11266,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
@@ -7330,7 +11284,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -7348,31 +11302,31 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:8" ht="74" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="53" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+    </row>
+    <row r="20" spans="1:8" ht="74" customHeight="1">
+      <c r="A20" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7382,7 +11336,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7392,7 +11346,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="A23" s="15"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7402,7 +11356,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7412,7 +11366,7 @@
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8">
       <c r="A25" s="15"/>
       <c r="B25" s="13"/>
       <c r="C25" s="15"/>
@@ -7422,7 +11376,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7432,7 +11386,7 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
     </row>
-    <row r="27" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="19.5" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7442,7 +11396,7 @@
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
     </row>
-    <row r="28" spans="1:8" ht="268" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="268" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7452,7 +11406,7 @@
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7462,7 +11416,7 @@
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7472,7 +11426,7 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7482,7 +11436,7 @@
       <c r="G31" s="13"/>
       <c r="H31" s="18"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7492,27 +11446,27 @@
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="61"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+    </row>
+    <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -7522,7 +11476,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -7532,7 +11486,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -7542,7 +11496,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7552,7 +11506,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7562,7 +11516,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7572,7 +11526,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -7582,7 +11536,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -7592,7 +11546,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -7602,7 +11556,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -7612,7 +11566,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -7622,7 +11576,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -7632,7 +11586,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7642,7 +11596,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -7652,7 +11606,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="16.5" customHeight="1">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -7662,7 +11616,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
     </row>
-    <row r="50" spans="1:8" ht="271" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="271" customHeight="1">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -7672,7 +11626,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -7682,7 +11636,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -7692,7 +11646,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -7702,7 +11656,7 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -7712,7 +11666,7 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -7722,7 +11676,7 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -7732,7 +11686,7 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -7742,7 +11696,7 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -7752,7 +11706,7 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -7762,7 +11716,7 @@
       <c r="G59" s="17"/>
       <c r="H59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -7772,7 +11726,7 @@
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
@@ -7782,7 +11736,7 @@
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
@@ -7792,7 +11746,7 @@
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -7802,7 +11756,7 @@
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="14"/>
@@ -7812,7 +11766,7 @@
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8">
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
@@ -7822,7 +11776,7 @@
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8">
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -7832,7 +11786,7 @@
       <c r="G66" s="17"/>
       <c r="H66" s="17"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -7842,7 +11796,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -7852,7 +11806,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -7862,7 +11816,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -7872,7 +11826,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -7882,7 +11836,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -7892,7 +11846,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -7902,7 +11856,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -7912,7 +11866,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -7922,7 +11876,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -7932,7 +11886,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -7942,7 +11896,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -7952,7 +11906,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -7962,7 +11916,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -7972,7 +11926,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -7982,7 +11936,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -7992,7 +11946,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -8002,7 +11956,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -8012,7 +11966,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -8022,7 +11976,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -8032,7 +11986,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -8042,7 +11996,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -8052,7 +12006,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -8062,7 +12016,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -8072,7 +12026,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -8082,7 +12036,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -8092,7 +12046,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -8102,7 +12056,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -8114,13 +12068,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -8130,6 +12077,13 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/api/Notice/Department_API.xlsx
+++ b/api/Notice/Department_API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Documents\GitHub\AISW_Web_Community\api\Notice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA679A6-800C-4BBF-9555-8F45CD8F2617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130B7CDB-DD98-48E7-B3B5-1908D36EF70B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4D31F6B6-070E-4774-AAEF-202F9D53FBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="학과 공지 전체 조회" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="121">
   <si>
     <t>Title</t>
   </si>
@@ -677,106 +677,6 @@
   </si>
   <si>
     <r>
-      <t>{
-   "transaction_time" : "2021-01-08T17:12:33.333",
-   "result_code" : "OK",
-   "description" : "OK",
-   "data" : {
-      "id" : 1,
-      "title" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>",
-      "content" : "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수강신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>날짜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>: 12/31",
-      "attachment_file" : "/User/notice.docx",
-      "status": "GENERAL",
-      "views" : 1,
-      "created_at" : "2021-01-01T01:01:11.111",
-      "created_by" : "Hong gil dong",
-      "updated_at" : null,
-      "updated_by" : null,
-      "level" : 0,
-      "notice_id" : 1
-   }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Department (</t>
     </r>
     <r>
@@ -1166,6 +1066,587 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Pagination </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pages</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_elements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current_elements</t>
+  </si>
+  <si>
+    <t>default 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/title?title=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/title&amp;content?title=name&amp;content=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Department (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/notice/department/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8080/notice/department/writer?writer=name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>{
    "transaction_time" : "2021-01-08T17:12:33.333",
    "result_code" : "OK",
@@ -1211,6 +1692,7 @@
         <family val="2"/>
       </rPr>
       <t>",
+      "writer" : "tester",
       "content" : "</t>
     </r>
     <r>
@@ -1272,7 +1754,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pagination </t>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : [{
+      "id" : 1,
+      "title" : "</t>
     </r>
     <r>
       <rPr>
@@ -1282,11 +1770,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>부</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1295,7 +1789,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>전체</t>
+      <t>공지</t>
     </r>
     <r>
       <rPr>
@@ -1304,7 +1798,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>",
+      "wrtier" : "tester",
+      "content" : "</t>
     </r>
     <r>
       <rPr>
@@ -1314,7 +1810,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>페이지</t>
+      <t>수강신청</t>
     </r>
     <r>
       <rPr>
@@ -1333,14 +1829,46 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>수</t>
+      <t>날짜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "notice_id" : 1
+   }],
+   "pagination" : {
+      "total_pages" : 10,
+      "total_elements" : 100,
+      "current_page" : 3,
+      "current_elements" : 10
+   }
+}</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_pages</t>
-  </si>
-  <si>
+    <r>
+      <t>{
+   "transaction_time" : "2021-01-08T17:12:33.333",
+   "result_code" : "OK",
+   "description" : "OK",
+   "data" : {
+      "id" : 1,
+      "title" : "</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1349,7 +1877,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>전체</t>
+      <t>수강신청</t>
     </r>
     <r>
       <rPr>
@@ -1368,7 +1896,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>아이템</t>
+      <t>공지</t>
     </r>
     <r>
       <rPr>
@@ -1377,7 +1905,9 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>",
+      "writer" : "tester",
+      "content" : "</t>
     </r>
     <r>
       <rPr>
@@ -1387,14 +1917,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_elements</t>
-  </si>
-  <si>
+      <t>수강신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1403,7 +1936,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>현재</t>
+      <t>날짜</t>
     </r>
     <r>
       <rPr>
@@ -1412,414 +1945,19 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>페이지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이템</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current_elements</t>
-  </si>
-  <si>
-    <t>default 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Department (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/department/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/department/title?title=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Department (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제목</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/department/title&amp;content?title=name&amp;content=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/department/title&amp;content?title=name&amp;content=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Department (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>검색</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/notice/department/writer?writer=name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://localhost:8080/notice/department/writer?writer=name</t>
+      <t>: 12/31",
+      "attachment_file" : "/User/notice.docx",
+      "status": "GENERAL",
+      "views" : 1,
+      "created_at" : "2021-01-01T01:01:11.111",
+      "created_by" : "Hong gil dong",
+      "updated_at" : null,
+      "updated_by" : null,
+      "level" : 0,
+      "notice_id" : 1
+   }
+}</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2083,7 +2221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2151,13 +2289,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2174,13 +2305,26 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2198,18 +2342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2279,6 +2411,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2596,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B60143-E3B9-4AB4-9B51-6040CE152FCC}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:H40"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -2612,95 +2753,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -2749,64 +2890,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -2888,14 +3029,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>21</v>
@@ -2906,7 +3047,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -2945,32 +3086,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -2978,84 +3119,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -3065,35 +3206,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -3101,174 +3244,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="27" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="29" t="s">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="29" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="29" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="29" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="29" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="332" customHeight="1">
-      <c r="A40" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11"/>
@@ -3772,12 +3933,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -3785,7 +3941,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3800,8 +3961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A124F7A-DA1E-44F6-A044-FD6B9B9E3A46}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -3816,95 +3977,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -3933,198 +4094,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4149,32 +4310,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -4182,84 +4343,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -4269,35 +4430,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -4305,184 +4468,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="332" customHeight="1">
-      <c r="A40" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -4525,94 +4696,94 @@
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -4645,54 +4816,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -4976,7 +5147,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -4984,12 +5161,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5004,8 +5175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{384BA4C8-7AC5-4D47-81F5-6C8266FCDC15}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -5020,95 +5191,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -5137,198 +5308,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5353,32 +5524,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -5386,84 +5557,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -5473,35 +5644,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -5509,184 +5682,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="332" customHeight="1">
-      <c r="A40" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="11"/>
@@ -5739,84 +5920,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -5849,54 +6030,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -6180,7 +6361,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -6188,12 +6375,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6208,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637FBEDF-8B61-4084-8AF7-D9562F0E774A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -6224,95 +6405,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="B3" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -6341,198 +6522,198 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="A12" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="G18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="31"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="G20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
+      <c r="A21" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6557,32 +6738,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -6590,84 +6771,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -6677,35 +6858,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -6713,174 +6896,192 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="31" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="31" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:8" ht="17" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="31" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A35" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="33"/>
+      <c r="C36" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A35" s="31" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="34" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="34"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="31" t="s">
+      <c r="G37" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="35" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="34"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="31" t="s">
+      <c r="G38" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="35" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="34"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="31" t="s">
+      <c r="G39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="43" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" ht="332" customHeight="1">
-      <c r="A40" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" ht="409.6" customHeight="1">
+      <c r="A41" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="11"/>
@@ -6943,84 +7144,84 @@
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="14"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="14"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="14"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="14"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="14"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="14"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="15"/>
@@ -7053,54 +7254,54 @@
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="14"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="14"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="14"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="14"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="33"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="14"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="33"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="33"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="7"/>
@@ -7384,7 +7585,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -7392,12 +7599,6 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A6:H6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7405,6 +7606,7 @@
     <hyperlink ref="A12" r:id="rId2" xr:uid="{A8831655-3EBF-427E-8CDC-839F8A5F16C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7412,8 +7614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA89CF2D-BC52-4BF4-868E-5B8B099A5517}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -7428,95 +7630,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -7575,64 +7777,64 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6" t="s">
@@ -7732,7 +7934,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
@@ -7771,32 +7973,32 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="73"/>
+      <c r="C23" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8"/>
@@ -7804,84 +8006,84 @@
         <v>27</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="8" t="s">
-        <v>49</v>
+      <c r="A25" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9" t="s">
-        <v>51</v>
+      <c r="A26" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>52</v>
+      <c r="C26" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="F26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B27" s="8"/>
-      <c r="C27" s="8" t="s">
-        <v>54</v>
+      <c r="C27" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>56</v>
+      <c r="F27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8" t="s">
-        <v>57</v>
+      <c r="A28" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>21</v>
@@ -7891,35 +8093,37 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
+      <c r="A29" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>32</v>
@@ -7927,88 +8131,106 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G32" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="27" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27" t="s">
+      <c r="B33" s="34"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="27" t="s">
+      <c r="G33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="22" t="s">
+    <row r="34" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="22" t="s">
+      <c r="G34" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A34" s="43" t="s">
+    <row r="35" spans="1:8" ht="17" customHeight="1">
+      <c r="A35" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
-    </row>
-    <row r="35" spans="1:8" ht="269.5" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="47"/>
+    </row>
+    <row r="36" spans="1:8" ht="353.5" customHeight="1">
+      <c r="A36" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="13"/>
@@ -8562,12 +8784,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A11:H11"/>
@@ -8575,7 +8792,12 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8590,8 +8812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31E2576-20FD-4E47-B846-39903FF9702A}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -8606,95 +8828,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -9009,52 +9231,52 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:8" ht="198.5" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="A26" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="21" t="s">
@@ -9168,7 +9390,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -9207,32 +9429,32 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -9240,84 +9462,84 @@
         <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
+      <c r="A38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>51</v>
+      <c r="A39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>52</v>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>54</v>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>56</v>
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>57</v>
+      <c r="A41" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
@@ -9327,35 +9549,37 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>59</v>
+      <c r="A42" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>32</v>
@@ -9363,90 +9587,107 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G45" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="27" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="27" t="s">
+      <c r="G46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="22" t="s">
+    <row r="47" spans="1:8" ht="15.5" customHeight="1">
+      <c r="A47" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="G47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A47" s="43" t="s">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" ht="309" customHeight="1">
-      <c r="A48" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="271" customHeight="1"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" ht="271" customHeight="1">
+      <c r="A49" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+    </row>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
@@ -9769,6 +10010,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -9776,12 +10023,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9796,8 +10037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE31BB7-A599-4ABB-A50D-5795B880F93B}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.25" defaultRowHeight="17"/>
@@ -9812,95 +10053,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -10000,7 +10241,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
@@ -10215,66 +10456,66 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="58"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" spans="1:13" ht="260" customHeight="1">
-      <c r="A26" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
+      <c r="A26" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:13" ht="17.5" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="64"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="21" t="s">
@@ -10353,11 +10594,11 @@
         <v>32</v>
       </c>
       <c r="H32" s="22"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="22" t="s">
@@ -10379,7 +10620,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22" t="s">
@@ -10418,32 +10659,32 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8"/>
@@ -10451,84 +10692,84 @@
         <v>27</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8" t="s">
-        <v>49</v>
+      <c r="A38" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>65</v>
+        <v>32</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9" t="s">
-        <v>51</v>
+      <c r="A39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
-        <v>52</v>
+      <c r="C39" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="9" t="s">
+      <c r="F39" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
-        <v>54</v>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>56</v>
+      <c r="F40" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
-        <v>57</v>
+      <c r="A41" s="71" t="s">
+        <v>114</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>21</v>
@@ -10538,35 +10779,37 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
-        <v>59</v>
+      <c r="A42" s="71" t="s">
+        <v>115</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>32</v>
@@ -10574,90 +10817,107 @@
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22" t="s">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="22" t="s">
+      <c r="G45" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="27" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G45" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H45" s="27" t="s">
+      <c r="G46" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="22" t="s">
+    <row r="47" spans="1:8" ht="17" customHeight="1">
+      <c r="A47" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="G47" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="34" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
-      <c r="A47" s="43" t="s">
+    <row r="48" spans="1:8" ht="17" customHeight="1">
+      <c r="A48" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" ht="354.5" customHeight="1">
-      <c r="A48" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-    </row>
-    <row r="49" spans="1:8" ht="277" customHeight="1"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" ht="277" customHeight="1">
+      <c r="A49" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
+    </row>
     <row r="50" spans="1:8" ht="271" customHeight="1"/>
     <row r="61" spans="1:8">
       <c r="A61" s="13"/>
@@ -10981,6 +11241,14 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I32:M32"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:H27"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
@@ -10988,14 +11256,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="I32:M32"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11010,7 +11270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE8F0A6-CE1B-4868-9054-B38C338BA073}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -11026,95 +11286,95 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="52"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
@@ -11163,64 +11423,64 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="66"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6" t="s">
@@ -11303,28 +11563,28 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" ht="74" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="13"/>
@@ -11447,24 +11707,24 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="68"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="19" customHeight="1">
       <c r="A35" s="17"/>
@@ -12068,6 +12328,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A11:H11"/>
@@ -12077,13 +12344,6 @@
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="B14:H14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
